--- a/data/excel/thoi_khoa_bieu.xlsx
+++ b/data/excel/thoi_khoa_bieu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,129 +436,254 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Thứ 2</t>
+          <t>Thời gian</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Thứ 3</t>
+          <t>Thứ Hai</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Thứ 4</t>
+          <t>Thứ Ba</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Thứ 5</t>
+          <t>Thứ Tư</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Thứ 6</t>
+          <t>Thứ Năm</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Thứ 7</t>
+          <t>Thứ Sáu</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Thứ Bảy</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Chủ Nhật</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>06:00 – 08:00</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Lập trình hướng đối tượng</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Trí tuệ nhân tạo</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Nguyên lý Hệ điều hành</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Tư tưởng HCM</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Tiếng Anh 1</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>(Đang đi làm)</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Ôn tập nhanh tất cả môn (2h)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>08:30 – 10:30</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Trí tuệ nhân tạo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Nguyên lý HĐH</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Tư tưởng HCM</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Tiếng Anh 1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Lập trình HĐTĐ</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>(Đang đi làm)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Hoàn thiện dự án nhỏ hàng tuần (2h)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>14:00 – 16:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Nguyên lý Hệ điều hành</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Tư tưởng HCM</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Tiếng Anh 1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Lập trình HĐTĐ</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Trí tuệ nhân tạo</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>(Đang đi làm đến 17:00)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Buffer &amp; ôn chuyên sâu (2h)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>16:30 – 18:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tư tưởng HCM</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Tiếng Anh 1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Lập trình HĐTĐ</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Trí tuệ nhân tạo</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nguyên lý HĐH</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>17:00 – 18:30: Gym18:30 – 20:00: Ăn tối/ nghỉ</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Nghỉ/nghỉ linh hoạt</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>20:00 – 22:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gym (tối)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Gym (tối)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Gym (tối)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Gym (tối)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Gym (tối)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>20:00 – 22:00: Dự án nhỏ hàng tuần</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>20:00 – 21:30: Gym (tuỳ chọn)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/excel/thoi_khoa_bieu.xlsx
+++ b/data/excel/thoi_khoa_bieu.xlsx
@@ -478,84 +478,84 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>06:00 – 08:00</t>
+          <t>06:00 – 07:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lập trình hướng đối tượng</t>
+          <t>OOP lý thuyết</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Trí tuệ nhân tạo</t>
+          <t>DSA lý thuyết</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Nguyên lý Hệ điều hành</t>
+          <t>AI lý thuyết</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Tư tưởng HCM</t>
+          <t>Bận lab</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tiếng Anh 1</t>
+          <t>Tổng ôn DSA</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>(Đang đi làm)</t>
+          <t>Tuỳ chọn AI/OOP</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ôn tập nhanh tất cả môn (2h)</t>
+          <t>Ôn nhẹ + đọc thuật toán</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>08:30 – 10:30</t>
+          <t>08:00 – 10:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Trí tuệ nhân tạo</t>
+          <t>AI thực hành</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Nguyên lý HĐH</t>
+          <t>DSA coding</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Tư tưởng HCM</t>
+          <t>OOP code</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Tiếng Anh 1</t>
+          <t>Bận lab</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lập trình HĐTĐ</t>
+          <t>AI mini-project</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>(Đang đi làm)</t>
+          <t>Bận đi làm</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Hoàn thiện dự án nhỏ hàng tuần (2h)</t>
+          <t>Làm project AI</t>
         </is>
       </c>
     </row>
@@ -567,121 +567,121 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nguyên lý Hệ điều hành</t>
+          <t>OOP coding</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Tư tưởng HCM</t>
+          <t>AI lý thuyết</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Tiếng Anh 1</t>
+          <t>DSA luyện tập</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Lập trình HĐTĐ</t>
+          <t>Bận lab</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Trí tuệ nhân tạo</t>
+          <t>Fix lỗi dự án</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>(Đang đi làm đến 17:00)</t>
+          <t>Bận đi làm</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Buffer &amp; ôn chuyên sâu (2h)</t>
+          <t>Thi thử DSA / Leetcode</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>16:30 – 18:00</t>
+          <t>16:00 – 17:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tư tưởng HCM</t>
+          <t>Gym/cardio</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Tiếng Anh 1</t>
+          <t>Gym/cardio</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Lập trình HĐTĐ</t>
+          <t>Gym/cardio</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Trí tuệ nhân tạo</t>
+          <t>Bận lab</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Nguyên lý HĐH</t>
+          <t>Gym/cardio</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>17:00 – 18:30: Gym18:30 – 20:00: Ăn tối/ nghỉ</t>
+          <t>Gym sau làm</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Nghỉ/nghỉ linh hoạt</t>
+          <t>Gym linh hoạt</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20:00 – 22:00</t>
+          <t>17:30 – 21:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gym (tối)</t>
+          <t>Bận</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Gym (tối)</t>
+          <t>Bận</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Gym (tối)</t>
+          <t>Bận</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Gym (tối)</t>
+          <t>Bận</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Gym (tối)</t>
+          <t>Bận</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>20:00 – 22:00: Dự án nhỏ hàng tuần</t>
+          <t>Bận + gym</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>20:00 – 21:30: Gym (tuỳ chọn)</t>
+          <t>Bận / nghỉ ngơi</t>
         </is>
       </c>
     </row>
